--- a/SU23/expdata/10001.xlsx
+++ b/SU23/expdata/10001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuprd-my.sharepoint.com/personal/tug83224_temple_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{617AF6AC-9523-5247-BEDF-84ADD902D6F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{84BA0DDD-1759-6847-83EA-D93FB0C30282}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB560C69-CEE2-6A4B-97CA-26859A9269D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>col</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>SU3</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -430,7 +438,9 @@
       <c r="D2" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="H2" s="4"/>
     </row>

--- a/SU23/expdata/10001.xlsx
+++ b/SU23/expdata/10001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB560C69-CEE2-6A4B-97CA-26859A9269D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6CA064-3200-F746-8339-A0E89B4A2B66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,10 +57,10 @@
     <t>SU3</t>
   </si>
   <si>
-    <t>tar</t>
-  </si>
-  <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>target</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:AMG18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -439,7 +439,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="4"/>

--- a/SU23/expdata/10001.xlsx
+++ b/SU23/expdata/10001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6CA064-3200-F746-8339-A0E89B4A2B66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD1965B-ACEF-424C-8614-AE9F4F41C80D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,13 +54,13 @@
     <t>SR</t>
   </si>
   <si>
-    <t>SU3</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>SU2</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:AMG18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>1.2689999999999999</v>
@@ -439,7 +439,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="4"/>
